--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, MARISSA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, MARISSA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC090478-4C47-497E-B0E3-39D59F785DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="626" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="626" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="463">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1428,7 +1429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2157,7 +2158,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2201,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2265,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2325,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2391,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2454,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2552,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2611,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2676,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2719,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2794,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2980,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3046,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3104,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3170,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3226,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3301,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3344,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3410,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,7 +3466,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3545,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3561,25 +3562,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K705" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K705" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3886,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3896,7 +3897,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3904,34 +3905,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A622" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="C12" sqref="C12:C13"/>
-      <selection pane="bottomLeft" activeCell="K631" sqref="K631"/>
+      <selection pane="bottomLeft" activeCell="B633" sqref="B633"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3996,7 +3997,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4004,7 +4005,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4017,7 +4018,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -4034,7 +4035,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4078,7 +4079,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.369000000000085</v>
+        <v>64.619000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4088,12 +4089,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.877000000000066</v>
+        <v>21.127000000000066</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>92</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>93</v>
       </c>
@@ -4132,7 +4133,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>35566</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35582</v>
       </c>
@@ -4171,7 +4172,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>35612</v>
@@ -4192,7 +4193,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A19" si="0">EDATE(A14,1)</f>
         <v>35643</v>
@@ -4219,7 +4220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4240,7 +4241,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4265,7 +4266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A17,1)</f>
         <v>35735</v>
@@ -4286,7 +4287,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4307,7 +4308,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>99</v>
       </c>
@@ -4325,7 +4326,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35796</v>
       </c>
@@ -4345,7 +4346,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A21,1)</f>
         <v>35827</v>
@@ -4366,7 +4367,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A29" si="1">EDATE(A22,1)</f>
         <v>35855</v>
@@ -4393,7 +4394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4414,7 +4415,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4441,7 +4442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4466,7 +4467,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4493,7 +4494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4514,7 +4515,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4541,7 +4542,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>107</v>
@@ -4558,7 +4559,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36069</v>
@@ -4583,7 +4584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>106</v>
@@ -4602,7 +4603,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36100</v>
@@ -4629,7 +4630,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>110</v>
@@ -4646,7 +4647,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36130</v>
@@ -4673,7 +4674,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>102</v>
@@ -4695,7 +4696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>111</v>
@@ -4715,7 +4716,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>113</v>
       </c>
@@ -4733,7 +4734,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36161</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>106</v>
@@ -4776,7 +4777,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>115</v>
@@ -4793,7 +4794,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36192</v>
@@ -4820,7 +4821,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>106</v>
@@ -4839,7 +4840,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>117</v>
@@ -4856,7 +4857,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>36220</v>
@@ -4881,7 +4882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>102</v>
@@ -4900,7 +4901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>119</v>
@@ -4917,7 +4918,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>36251</v>
@@ -4942,7 +4943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>106</v>
@@ -4964,7 +4965,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>123</v>
@@ -4981,7 +4982,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f>EDATE(A48,1)</f>
         <v>36281</v>
@@ -5008,7 +5009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>100</v>
@@ -5027,7 +5028,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>124</v>
@@ -5044,7 +5045,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A51,1)</f>
         <v>36312</v>
@@ -5071,7 +5072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>127</v>
@@ -5088,7 +5089,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36342</v>
@@ -5115,7 +5116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A59" si="2">EDATE(A56,1)</f>
         <v>36373</v>
@@ -5140,7 +5141,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -5167,7 +5168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -5194,7 +5195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>129</v>
@@ -5211,7 +5212,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36465</v>
@@ -5238,7 +5239,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>116</v>
@@ -5257,7 +5258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36495</v>
@@ -5284,7 +5285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>136</v>
@@ -5304,7 +5305,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>137</v>
       </c>
@@ -5322,7 +5323,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>36526</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>116</v>
@@ -5365,7 +5366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>106</v>
@@ -5384,7 +5385,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>139</v>
@@ -5401,7 +5402,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A66,1)</f>
         <v>36557</v>
@@ -5428,7 +5429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>136</v>
@@ -5445,7 +5446,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5470,7 +5471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>102</v>
@@ -5489,7 +5490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>106</v>
@@ -5508,7 +5509,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5535,7 +5536,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>142</v>
@@ -5552,7 +5553,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36647</v>
@@ -5579,7 +5580,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>116</v>
@@ -5598,7 +5599,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>116</v>
@@ -5617,7 +5618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>105</v>
@@ -5634,7 +5635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>143</v>
@@ -5651,7 +5652,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5678,7 +5679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>106</v>
@@ -5697,7 +5698,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -5722,7 +5723,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" ref="A85:A89" si="3">EDATE(A84,1)</f>
         <v>36739</v>
@@ -5749,7 +5750,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -5774,7 +5775,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5795,7 +5796,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -5816,7 +5817,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -5843,7 +5844,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>151</v>
       </c>
@@ -5861,7 +5862,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36892</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>116</v>
@@ -5904,7 +5905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36923</v>
@@ -5931,7 +5932,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -5948,7 +5949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>36951</v>
@@ -5975,7 +5976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>102</v>
@@ -5994,7 +5995,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36982</v>
@@ -6015,7 +6016,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A105" si="4">EDATE(A97,1)</f>
         <v>37012</v>
@@ -6042,7 +6043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>105</v>
@@ -6059,7 +6060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>37043</v>
@@ -6086,7 +6087,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6113,7 +6114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>106</v>
@@ -6132,7 +6133,7 @@
         <v>46935</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6151,7 +6152,7 @@
         <v>46569</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6172,7 +6173,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -6199,7 +6200,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>106</v>
@@ -6218,7 +6219,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>37165</v>
@@ -6245,7 +6246,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>116</v>
@@ -6264,7 +6265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>129</v>
@@ -6281,7 +6282,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37196</v>
@@ -6308,7 +6309,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>102</v>
@@ -6327,7 +6328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A110,1)</f>
         <v>37226</v>
@@ -6348,7 +6349,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>158</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37257</v>
@@ -6391,7 +6392,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" ref="A115:A226" si="5">EDATE(A114,1)</f>
         <v>37288</v>
@@ -6416,7 +6417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="5"/>
         <v>37316</v>
@@ -6443,7 +6444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6465,7 +6466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37347</v>
@@ -6490,7 +6491,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -6515,7 +6516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -6536,7 +6537,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -6563,7 +6564,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -6590,7 +6591,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>183</v>
@@ -6607,7 +6608,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37500</v>
@@ -6634,7 +6635,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>185</v>
@@ -6651,7 +6652,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37530</v>
@@ -6676,7 +6677,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -6703,7 +6704,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>187</v>
@@ -6720,7 +6721,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37591</v>
@@ -6745,7 +6746,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>159</v>
       </c>
@@ -6763,7 +6764,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -6788,7 +6789,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="5"/>
         <v>37653</v>
@@ -6815,7 +6816,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>106</v>
@@ -6834,7 +6835,7 @@
         <v>46784</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>105</v>
@@ -6851,7 +6852,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -6878,7 +6879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>106</v>
@@ -6897,7 +6898,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>106</v>
@@ -6916,7 +6917,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>105</v>
@@ -6933,7 +6934,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -6954,7 +6955,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -6975,7 +6976,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -7002,7 +7003,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>105</v>
@@ -7019,7 +7020,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7046,7 +7047,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -7067,7 +7068,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -7092,7 +7093,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7117,7 +7118,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -7142,7 +7143,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -7167,7 +7168,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>198</v>
@@ -7184,7 +7185,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>160</v>
       </c>
@@ -7202,7 +7203,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>37987</v>
@@ -7229,7 +7230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>199</v>
@@ -7246,7 +7247,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>38018</v>
@@ -7273,7 +7274,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7290,7 +7291,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>201</v>
@@ -7307,7 +7308,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38047</v>
@@ -7332,7 +7333,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -7357,7 +7358,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -7384,7 +7385,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>105</v>
@@ -7401,7 +7402,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>188</v>
@@ -7418,7 +7419,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38139</v>
@@ -7443,7 +7444,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7470,7 +7471,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>134</v>
@@ -7489,7 +7490,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>208</v>
@@ -7506,7 +7507,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38200</v>
@@ -7533,7 +7534,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>116</v>
@@ -7552,7 +7553,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>209</v>
@@ -7569,7 +7570,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38231</v>
@@ -7596,7 +7597,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>211</v>
@@ -7613,7 +7614,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>38261</v>
@@ -7638,7 +7639,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>212</v>
@@ -7655,7 +7656,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38292</v>
@@ -7682,7 +7683,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>106</v>
@@ -7701,7 +7702,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>213</v>
@@ -7718,7 +7719,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38322</v>
@@ -7743,7 +7744,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="48" t="s">
         <v>161</v>
       </c>
@@ -7761,7 +7762,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38353</v>
@@ -7788,7 +7789,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>116</v>
@@ -7807,7 +7808,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>216</v>
@@ -7824,7 +7825,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -7851,7 +7852,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>116</v>
@@ -7870,7 +7871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>105</v>
@@ -7888,7 +7889,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>220</v>
@@ -7907,7 +7908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f>EDATE(A180,1)</f>
         <v>38412</v>
@@ -7932,7 +7933,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>224</v>
@@ -7949,7 +7950,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38443</v>
@@ -7976,7 +7977,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>134</v>
@@ -7995,7 +7996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>226</v>
@@ -8012,7 +8013,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38473</v>
@@ -8037,7 +8038,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="5"/>
         <v>38504</v>
@@ -8064,7 +8065,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>100</v>
@@ -8083,7 +8084,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>230</v>
@@ -8100,7 +8101,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38534</v>
@@ -8127,7 +8128,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>116</v>
@@ -8146,7 +8147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>106</v>
@@ -8165,7 +8166,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>235</v>
@@ -8182,7 +8183,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A193,1)</f>
         <v>38565</v>
@@ -8207,7 +8208,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="5"/>
         <v>38596</v>
@@ -8234,7 +8235,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>116</v>
@@ -8253,7 +8254,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>238</v>
@@ -8270,7 +8271,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38626</v>
@@ -8297,7 +8298,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>239</v>
@@ -8314,7 +8315,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38657</v>
@@ -8341,7 +8342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>243</v>
@@ -8358,7 +8359,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38687</v>
@@ -8385,7 +8386,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>245</v>
@@ -8402,7 +8403,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
         <v>162</v>
       </c>
@@ -8420,7 +8421,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A205,1)</f>
         <v>38718</v>
@@ -8447,7 +8448,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>105</v>
@@ -8464,7 +8465,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>246</v>
@@ -8481,7 +8482,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>38749</v>
@@ -8508,7 +8509,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>106</v>
@@ -8527,7 +8528,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>247</v>
@@ -8544,7 +8545,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38777</v>
@@ -8569,7 +8570,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="5"/>
         <v>38808</v>
@@ -8596,7 +8597,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>100</v>
@@ -8618,7 +8619,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>249</v>
@@ -8635,7 +8636,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38838</v>
@@ -8660,7 +8661,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="5"/>
         <v>38869</v>
@@ -8687,7 +8688,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>253</v>
@@ -8704,7 +8705,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f>EDATE(A219,1)</f>
         <v>38899</v>
@@ -8729,7 +8730,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="5"/>
         <v>38930</v>
@@ -8754,7 +8755,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="5"/>
         <v>38961</v>
@@ -8781,7 +8782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>257</v>
@@ -8798,7 +8799,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38991</v>
@@ -8823,7 +8824,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="5"/>
         <v>39022</v>
@@ -8850,7 +8851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>259</v>
@@ -8867,7 +8868,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>39052</v>
@@ -8894,7 +8895,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>197</v>
@@ -8911,7 +8912,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>261</v>
@@ -8928,7 +8929,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>163</v>
       </c>
@@ -8946,7 +8947,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f>EDATE(A228,1)</f>
         <v>39083</v>
@@ -8973,7 +8974,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>262</v>
@@ -8990,7 +8991,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39114</v>
@@ -9015,7 +9016,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>264</v>
@@ -9032,7 +9033,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39142</v>
@@ -9059,7 +9060,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>105</v>
@@ -9076,7 +9077,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>102</v>
@@ -9095,7 +9096,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>265</v>
@@ -9112,7 +9113,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39173</v>
@@ -9137,7 +9138,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" ref="A241:A373" si="6">EDATE(A240,1)</f>
         <v>39203</v>
@@ -9162,7 +9163,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>39234</v>
@@ -9187,7 +9188,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>272</v>
@@ -9204,7 +9205,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39264</v>
@@ -9229,7 +9230,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>39295</v>
@@ -9254,7 +9255,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>229</v>
@@ -9273,7 +9274,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>116</v>
@@ -9292,7 +9293,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>229</v>
@@ -9311,7 +9312,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A245,1)</f>
         <v>39326</v>
@@ -9338,7 +9339,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>278</v>
@@ -9359,7 +9360,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>279</v>
@@ -9376,7 +9377,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39356</v>
@@ -9403,7 +9404,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>283</v>
@@ -9422,7 +9423,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>282</v>
@@ -9441,7 +9442,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>186</v>
@@ -9458,7 +9459,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39387</v>
@@ -9485,7 +9486,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>105</v>
@@ -9502,7 +9503,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>241</v>
@@ -9521,7 +9522,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>287</v>
@@ -9538,7 +9539,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39417</v>
@@ -9563,7 +9564,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="48" t="s">
         <v>164</v>
       </c>
@@ -9581,7 +9582,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39448</v>
@@ -9606,7 +9607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>291</v>
@@ -9623,7 +9624,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>39479</v>
@@ -9650,7 +9651,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>116</v>
@@ -9669,7 +9670,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>293</v>
@@ -9686,7 +9687,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>295</v>
@@ -9703,7 +9704,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="55"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A264,1)</f>
         <v>39508</v>
@@ -9730,7 +9731,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>296</v>
@@ -9747,7 +9748,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -9774,7 +9775,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>297</v>
@@ -9791,7 +9792,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -9818,7 +9819,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>116</v>
@@ -9837,7 +9838,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>299</v>
@@ -9854,7 +9855,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>39600</v>
@@ -9881,7 +9882,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>116</v>
@@ -9900,7 +9901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>300</v>
@@ -9917,7 +9918,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f>EDATE(A275,1)</f>
         <v>39630</v>
@@ -9944,7 +9945,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>279</v>
@@ -9961,7 +9962,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39661</v>
@@ -9988,7 +9989,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>283</v>
@@ -10007,7 +10008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>303</v>
@@ -10024,7 +10025,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f>EDATE(A280,1)</f>
         <v>39692</v>
@@ -10051,7 +10052,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>306</v>
@@ -10071,7 +10072,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>39722</v>
@@ -10100,7 +10101,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>307</v>
@@ -10117,7 +10118,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>39753</v>
@@ -10144,7 +10145,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>310</v>
@@ -10161,7 +10162,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>39783</v>
@@ -10188,7 +10189,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>312</v>
@@ -10205,7 +10206,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="48" t="s">
         <v>165</v>
       </c>
@@ -10223,7 +10224,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>39814</v>
@@ -10248,7 +10249,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>314</v>
@@ -10265,7 +10266,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>39845</v>
@@ -10290,7 +10291,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" si="6"/>
         <v>39873</v>
@@ -10315,7 +10316,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>105</v>
@@ -10332,7 +10333,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>318</v>
@@ -10349,7 +10350,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>39904</v>
@@ -10374,7 +10375,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -10399,7 +10400,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -10424,7 +10425,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -10449,7 +10450,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>322</v>
@@ -10466,7 +10467,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>40026</v>
@@ -10491,7 +10492,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -10518,7 +10519,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>322</v>
@@ -10535,7 +10536,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40087</v>
@@ -10560,7 +10561,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -10585,7 +10586,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -10610,7 +10611,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="48" t="s">
         <v>166</v>
       </c>
@@ -10628,7 +10629,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>40179</v>
@@ -10655,7 +10656,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>235</v>
@@ -10672,7 +10673,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="55"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>40210</v>
@@ -10697,7 +10698,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>40238</v>
@@ -10722,7 +10723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>329</v>
@@ -10739,7 +10740,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>40269</v>
@@ -10764,7 +10765,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -10789,7 +10790,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -10816,7 +10817,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>105</v>
@@ -10833,7 +10834,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f>EDATE(A317,1)</f>
         <v>40360</v>
@@ -10858,7 +10859,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -10883,7 +10884,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -10908,7 +10909,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -10933,7 +10934,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -10960,7 +10961,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>337</v>
@@ -10977,7 +10978,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40513</v>
@@ -11004,7 +11005,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>340</v>
@@ -11021,7 +11022,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="48" t="s">
         <v>167</v>
       </c>
@@ -11039,7 +11040,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>40544</v>
@@ -11064,7 +11065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>116</v>
@@ -11083,7 +11084,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>342</v>
@@ -11100,7 +11101,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>40575</v>
@@ -11127,7 +11128,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>106</v>
@@ -11146,7 +11147,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>106</v>
@@ -11165,7 +11166,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>106</v>
@@ -11184,7 +11185,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>344</v>
@@ -11201,7 +11202,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f>EDATE(A331,1)</f>
         <v>40603</v>
@@ -11228,7 +11229,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>100</v>
@@ -11247,7 +11248,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>105</v>
@@ -11264,7 +11265,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>345</v>
@@ -11281,7 +11282,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A336,1)</f>
         <v>40634</v>
@@ -11308,7 +11309,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>348</v>
@@ -11325,7 +11326,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40664</v>
@@ -11352,7 +11353,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>105</v>
@@ -11369,7 +11370,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>106</v>
@@ -11388,7 +11389,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>136</v>
@@ -11405,7 +11406,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A342,1)</f>
         <v>40695</v>
@@ -11432,7 +11433,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>116</v>
@@ -11451,7 +11452,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>350</v>
@@ -11468,7 +11469,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40725</v>
@@ -11497,7 +11498,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>355</v>
@@ -11514,7 +11515,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>40756</v>
@@ -11535,7 +11536,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>356</v>
@@ -11552,7 +11553,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>40787</v>
@@ -11579,7 +11580,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>116</v>
@@ -11601,7 +11602,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>359</v>
@@ -11618,7 +11619,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -11645,7 +11646,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>197</v>
@@ -11662,7 +11663,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>100</v>
@@ -11683,7 +11684,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>360</v>
@@ -11700,7 +11701,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A356,1)</f>
         <v>40848</v>
@@ -11729,7 +11730,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>363</v>
@@ -11746,7 +11747,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -11773,7 +11774,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>100</v>
@@ -11792,7 +11793,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>365</v>
@@ -11809,7 +11810,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="48" t="s">
         <v>168</v>
       </c>
@@ -11827,7 +11828,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A362,1)</f>
         <v>40909</v>
@@ -11852,7 +11853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>116</v>
@@ -11873,7 +11874,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>100</v>
@@ -11894,7 +11895,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>370</v>
@@ -11911,7 +11912,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>40940</v>
@@ -11940,7 +11941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>115</v>
@@ -11957,7 +11958,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>40969</v>
@@ -11982,7 +11983,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -12007,7 +12008,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>106</v>
@@ -12026,7 +12027,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>373</v>
@@ -12043,7 +12044,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>41030</v>
@@ -12070,7 +12071,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>106</v>
@@ -12089,7 +12090,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>100</v>
@@ -12108,7 +12109,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>374</v>
@@ -12125,7 +12126,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A376,1)</f>
         <v>41061</v>
@@ -12152,7 +12153,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>107</v>
@@ -12169,7 +12170,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A380,1)</f>
         <v>41091</v>
@@ -12198,7 +12199,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>229</v>
@@ -12219,7 +12220,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>106</v>
@@ -12238,7 +12239,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>377</v>
@@ -12255,7 +12256,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A382,1)</f>
         <v>41122</v>
@@ -12280,7 +12281,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" ref="A387:A508" si="7">EDATE(A386,1)</f>
         <v>41153</v>
@@ -12305,7 +12306,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>41183</v>
@@ -12332,7 +12333,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>105</v>
@@ -12349,7 +12350,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>383</v>
@@ -12366,7 +12367,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>41214</v>
@@ -12393,7 +12394,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>282</v>
@@ -12412,7 +12413,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>353</v>
@@ -12431,7 +12432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>384</v>
@@ -12448,7 +12449,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>41244</v>
@@ -12473,7 +12474,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="48" t="s">
         <v>169</v>
       </c>
@@ -12491,7 +12492,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41275</v>
@@ -12516,7 +12517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>278</v>
@@ -12537,7 +12538,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>195</v>
@@ -12554,7 +12555,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41306</v>
@@ -12583,7 +12584,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>388</v>
@@ -12600,7 +12601,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41334</v>
@@ -12627,7 +12628,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>105</v>
@@ -12644,7 +12645,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>390</v>
@@ -12661,7 +12662,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A402,1)</f>
         <v>41365</v>
@@ -12690,7 +12691,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>282</v>
@@ -12707,7 +12708,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>391</v>
@@ -12724,7 +12725,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41395</v>
@@ -12751,7 +12752,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>136</v>
@@ -12768,7 +12769,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>41426</v>
@@ -12799,7 +12800,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>394</v>
@@ -12816,7 +12817,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41456</v>
@@ -12845,7 +12846,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>395</v>
@@ -12862,7 +12863,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41487</v>
@@ -12893,7 +12894,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>397</v>
@@ -12910,7 +12911,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41518</v>
@@ -12939,7 +12940,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>399</v>
@@ -12956,7 +12957,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A416,1)</f>
         <v>41548</v>
@@ -12981,7 +12982,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="7"/>
         <v>41579</v>
@@ -13006,7 +13007,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>402</v>
@@ -13023,7 +13024,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41609</v>
@@ -13048,7 +13049,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="48" t="s">
         <v>170</v>
       </c>
@@ -13066,7 +13067,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41640</v>
@@ -13093,7 +13094,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>405</v>
@@ -13110,7 +13111,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41671</v>
@@ -13137,7 +13138,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>106</v>
@@ -13156,7 +13157,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>407</v>
@@ -13173,7 +13174,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A425,1)</f>
         <v>41699</v>
@@ -13198,7 +13199,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="7"/>
         <v>41730</v>
@@ -13225,7 +13226,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>106</v>
@@ -13244,7 +13245,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>409</v>
@@ -13261,7 +13262,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A429,1)</f>
         <v>41760</v>
@@ -13286,7 +13287,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="7"/>
         <v>41791</v>
@@ -13311,7 +13312,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>106</v>
@@ -13328,7 +13329,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>411</v>
@@ -13345,7 +13346,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f>EDATE(A433,1)</f>
         <v>41821</v>
@@ -13372,7 +13373,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>116</v>
@@ -13391,7 +13392,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>105</v>
@@ -13408,7 +13409,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>334</v>
@@ -13425,7 +13426,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A436,1)</f>
         <v>41852</v>
@@ -13452,7 +13453,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>416</v>
@@ -13469,7 +13470,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>41883</v>
@@ -13496,7 +13497,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>418</v>
@@ -13513,7 +13514,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>41913</v>
@@ -13542,7 +13543,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>309</v>
@@ -13561,7 +13562,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>419</v>
@@ -13578,7 +13579,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>41944</v>
@@ -13605,7 +13606,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>422</v>
@@ -13622,7 +13623,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>41974</v>
@@ -13653,7 +13654,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>353</v>
@@ -13672,7 +13673,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>423</v>
@@ -13689,7 +13690,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>171</v>
       </c>
@@ -13707,7 +13708,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A449,1)</f>
         <v>42005</v>
@@ -13732,7 +13733,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -13759,7 +13760,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>426</v>
@@ -13779,7 +13780,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42064</v>
@@ -13806,7 +13807,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>427</v>
@@ -13823,7 +13824,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42095</v>
@@ -13850,7 +13851,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>105</v>
@@ -13867,7 +13868,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>116</v>
@@ -13886,7 +13887,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -13905,7 +13906,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>429</v>
@@ -13922,7 +13923,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A458,1)</f>
         <v>42125</v>
@@ -13947,7 +13948,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -13972,7 +13973,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -13999,7 +14000,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>106</v>
@@ -14018,7 +14019,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>435</v>
@@ -14035,7 +14036,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A465,1)</f>
         <v>42217</v>
@@ -14060,7 +14061,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -14085,7 +14086,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>100</v>
@@ -14108,7 +14109,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>437</v>
@@ -14125,7 +14126,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A469,1)</f>
         <v>42278</v>
@@ -14150,7 +14151,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>440</v>
@@ -14167,7 +14168,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42309</v>
@@ -14192,7 +14193,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -14217,7 +14218,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="48" t="s">
         <v>172</v>
       </c>
@@ -14235,7 +14236,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f>EDATE(A475,1)</f>
         <v>42370</v>
@@ -14260,7 +14261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>116</v>
@@ -14279,7 +14280,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>444</v>
@@ -14296,7 +14297,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f>EDATE(A477,1)</f>
         <v>42401</v>
@@ -14321,7 +14322,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -14348,7 +14349,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>106</v>
@@ -14367,7 +14368,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>105</v>
@@ -14384,7 +14385,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>448</v>
@@ -14401,7 +14402,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f>EDATE(A481,1)</f>
         <v>42461</v>
@@ -14426,7 +14427,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -14453,7 +14454,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>142</v>
@@ -14470,7 +14471,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>42522</v>
@@ -14495,7 +14496,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -14520,7 +14521,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -14545,7 +14546,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -14570,7 +14571,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -14595,7 +14596,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -14620,7 +14621,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -14647,7 +14648,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>105</v>
@@ -14664,7 +14665,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>106</v>
@@ -14683,7 +14684,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>458</v>
@@ -14700,7 +14701,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>173</v>
       </c>
@@ -14718,7 +14719,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>42736</v>
@@ -14743,7 +14744,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>106</v>
@@ -14762,7 +14763,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f>EDATE(A499,1)</f>
         <v>42767</v>
@@ -14787,7 +14788,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -14808,7 +14809,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -14833,7 +14834,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -14860,7 +14861,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>102</v>
@@ -14879,7 +14880,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>116</v>
@@ -14898,7 +14899,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A504,1)</f>
         <v>42887</v>
@@ -14919,7 +14920,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -14946,7 +14947,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A508,1)</f>
         <v>42948</v>
@@ -14973,7 +14974,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>109</v>
@@ -14992,7 +14993,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>106</v>
@@ -15011,7 +15012,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>106</v>
@@ -15030,7 +15031,7 @@
         <v>11536</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f>EDATE(A509,1)</f>
         <v>42979</v>
@@ -15057,7 +15058,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>106</v>
@@ -15079,7 +15080,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f>EDATE(A513,1)</f>
         <v>43009</v>
@@ -15106,7 +15107,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>102</v>
@@ -15125,7 +15126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>106</v>
@@ -15144,7 +15145,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A515,1)</f>
         <v>43040</v>
@@ -15171,7 +15172,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>106</v>
@@ -15190,7 +15191,7 @@
         <v>38322</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43070</v>
@@ -15217,7 +15218,7 @@
         <v>46722</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="48" t="s">
         <v>49</v>
       </c>
@@ -15232,7 +15233,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43101</v>
       </c>
@@ -15256,7 +15257,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>52</v>
@@ -15278,7 +15279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>52</v>
@@ -15300,7 +15301,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43132</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43160</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>54</v>
@@ -15372,7 +15373,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>52</v>
@@ -15394,7 +15395,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>52</v>
@@ -15416,7 +15417,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>43191</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>52</v>
@@ -15464,7 +15465,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>43221</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>52</v>
@@ -15512,7 +15513,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43252</v>
       </c>
@@ -15532,7 +15533,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43282</v>
       </c>
@@ -15552,7 +15553,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>43313</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>52</v>
@@ -15600,7 +15601,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>43344</v>
       </c>
@@ -15626,7 +15627,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>52</v>
@@ -15648,7 +15649,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43374</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>55</v>
@@ -15694,7 +15695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>52</v>
@@ -15716,7 +15717,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>43405</v>
       </c>
@@ -15742,7 +15743,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43435</v>
       </c>
@@ -15768,7 +15769,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>58</v>
@@ -15790,7 +15791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="48" t="s">
         <v>50</v>
       </c>
@@ -15808,7 +15809,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43466</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43497</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>52</v>
@@ -15882,7 +15883,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>43525</v>
       </c>
@@ -15902,7 +15903,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43556</v>
       </c>
@@ -15928,7 +15929,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>55</v>
@@ -15950,7 +15951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>52</v>
@@ -15972,7 +15973,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>52</v>
@@ -15994,7 +15995,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>43586</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>58</v>
@@ -16042,7 +16043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43617</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>62</v>
@@ -16086,7 +16087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>58</v>
@@ -16108,7 +16109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>43647</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>52</v>
@@ -16156,7 +16157,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>55</v>
@@ -16178,7 +16179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43678</v>
       </c>
@@ -16204,7 +16205,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>52</v>
@@ -16226,7 +16227,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>43709</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>43739</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>52</v>
@@ -16300,7 +16301,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>52</v>
@@ -16322,7 +16323,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>55</v>
@@ -16344,7 +16345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>43770</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>55</v>
@@ -16392,7 +16393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>69</v>
@@ -16414,7 +16415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>43800</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="48" t="s">
         <v>47</v>
       </c>
@@ -16458,7 +16459,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>43831</v>
       </c>
@@ -16484,7 +16485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>58</v>
@@ -16506,7 +16507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43862</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>52</v>
@@ -16552,7 +16553,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>52</v>
@@ -16574,7 +16575,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -16594,7 +16595,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -16614,7 +16615,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -16634,7 +16635,7 @@
       <c r="J582" s="12"/>
       <c r="K582" s="15"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -16684,7 +16685,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -16732,7 +16733,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>44075</v>
       </c>
@@ -16758,7 +16759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>52</v>
@@ -16780,7 +16781,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44105</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44136</v>
       </c>
@@ -16824,7 +16825,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>44166</v>
       </c>
@@ -16850,7 +16851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>83</v>
@@ -16870,7 +16871,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="48" t="s">
         <v>79</v>
       </c>
@@ -16888,7 +16889,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44197</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>44228</v>
       </c>
@@ -16932,7 +16933,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>44256</v>
       </c>
@@ -16952,7 +16953,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>44287</v>
       </c>
@@ -16972,7 +16973,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>44317</v>
       </c>
@@ -16996,7 +16997,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44348</v>
       </c>
@@ -17016,7 +17017,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17036,7 +17037,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17056,7 +17057,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17076,7 +17077,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>55</v>
@@ -17150,7 +17151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>44531</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="48" t="s">
         <v>48</v>
       </c>
@@ -17194,7 +17195,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17218,7 +17219,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17238,7 +17239,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>44621</v>
       </c>
@@ -17258,7 +17259,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44652</v>
       </c>
@@ -17278,7 +17279,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44682</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44713</v>
       </c>
@@ -17324,7 +17325,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>44743</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>58</v>
@@ -17372,7 +17373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44835</v>
       </c>
@@ -17450,7 +17451,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44866</v>
       </c>
@@ -17476,7 +17477,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>51</v>
@@ -17496,7 +17497,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>51</v>
@@ -17516,7 +17517,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44896</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="48" t="s">
         <v>90</v>
       </c>
@@ -17560,7 +17561,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>44927</v>
       </c>
@@ -17586,7 +17587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>51</v>
@@ -17606,7 +17607,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>52</v>
@@ -17628,7 +17629,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>44958</v>
       </c>
@@ -17654,7 +17655,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44986</v>
       </c>
@@ -17674,7 +17675,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>45017</v>
       </c>
@@ -17694,7 +17695,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>45047</v>
       </c>
@@ -17720,20 +17721,22 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>45078</v>
       </c>
       <c r="B631" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39">
         <v>1</v>
@@ -17744,11 +17747,13 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>45108</v>
       </c>
-      <c r="B632" s="20"/>
+      <c r="B632" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
@@ -17760,9 +17765,11 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K632" s="49">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>45139</v>
       </c>
@@ -17780,7 +17787,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>45170</v>
       </c>
@@ -17798,7 +17805,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>45200</v>
       </c>
@@ -17816,7 +17823,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>45231</v>
       </c>
@@ -17834,7 +17841,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>45261</v>
       </c>
@@ -17852,7 +17859,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>45292</v>
       </c>
@@ -17870,7 +17877,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>45323</v>
       </c>
@@ -17888,7 +17895,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>45352</v>
       </c>
@@ -17906,7 +17913,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>45383</v>
       </c>
@@ -17924,7 +17931,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>45413</v>
       </c>
@@ -17942,7 +17949,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>45444</v>
       </c>
@@ -17960,7 +17967,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>45474</v>
       </c>
@@ -17978,7 +17985,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>45505</v>
       </c>
@@ -17996,7 +18003,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>45536</v>
       </c>
@@ -18014,7 +18021,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>45566</v>
       </c>
@@ -18032,7 +18039,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>45597</v>
       </c>
@@ -18050,7 +18057,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>45627</v>
       </c>
@@ -18068,7 +18075,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>45658</v>
       </c>
@@ -18086,7 +18093,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>45689</v>
       </c>
@@ -18104,7 +18111,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>45717</v>
       </c>
@@ -18122,7 +18129,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>45748</v>
       </c>
@@ -18140,7 +18147,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>45778</v>
       </c>
@@ -18158,7 +18165,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>45809</v>
       </c>
@@ -18176,7 +18183,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>45839</v>
       </c>
@@ -18194,7 +18201,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>45870</v>
       </c>
@@ -18212,7 +18219,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>45901</v>
       </c>
@@ -18230,7 +18237,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>45931</v>
       </c>
@@ -18248,7 +18255,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>45962</v>
       </c>
@@ -18266,7 +18273,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>45992</v>
       </c>
@@ -18284,7 +18291,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>46023</v>
       </c>
@@ -18302,7 +18309,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>46054</v>
       </c>
@@ -18320,7 +18327,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>46082</v>
       </c>
@@ -18338,7 +18345,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>46113</v>
       </c>
@@ -18356,7 +18363,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>46143</v>
       </c>
@@ -18374,7 +18381,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>46174</v>
       </c>
@@ -18392,7 +18399,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>46204</v>
       </c>
@@ -18410,7 +18417,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>46235</v>
       </c>
@@ -18428,7 +18435,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>46266</v>
       </c>
@@ -18446,7 +18453,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>46296</v>
       </c>
@@ -18464,7 +18471,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>46327</v>
       </c>
@@ -18482,7 +18489,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>46357</v>
       </c>
@@ -18500,7 +18507,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>46388</v>
       </c>
@@ -18518,7 +18525,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>46419</v>
       </c>
@@ -18536,7 +18543,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>46447</v>
       </c>
@@ -18554,7 +18561,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>46478</v>
       </c>
@@ -18572,7 +18579,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>46508</v>
       </c>
@@ -18590,7 +18597,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>46539</v>
       </c>
@@ -18608,7 +18615,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>46569</v>
       </c>
@@ -18626,7 +18633,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>46600</v>
       </c>
@@ -18644,7 +18651,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>46631</v>
       </c>
@@ -18662,7 +18669,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
         <v>46661</v>
       </c>
@@ -18680,7 +18687,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>46692</v>
       </c>
@@ -18698,7 +18705,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>46722</v>
       </c>
@@ -18716,7 +18723,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>46753</v>
       </c>
@@ -18734,7 +18741,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>46784</v>
       </c>
@@ -18752,7 +18759,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <v>46813</v>
       </c>
@@ -18770,7 +18777,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>46844</v>
       </c>
@@ -18788,7 +18795,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>46874</v>
       </c>
@@ -18806,7 +18813,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>46905</v>
       </c>
@@ -18824,7 +18831,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>46935</v>
       </c>
@@ -18842,7 +18849,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>46966</v>
       </c>
@@ -18860,7 +18867,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>46997</v>
       </c>
@@ -18878,7 +18885,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>47027</v>
       </c>
@@ -18896,7 +18903,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18912,7 +18919,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18928,7 +18935,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18944,7 +18951,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18960,7 +18967,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18976,7 +18983,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18992,7 +18999,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19008,7 +19015,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19024,7 +19031,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19040,7 +19047,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="41"/>
       <c r="B705" s="15"/>
       <c r="C705" s="42"/>
@@ -19072,10 +19079,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19101,28 +19108,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -19135,7 +19142,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19164,7 +19171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -19188,17 +19195,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19219,7 +19226,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19246,7 +19253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19272,7 +19279,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19298,7 +19305,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19324,7 +19331,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19350,7 +19357,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19376,7 +19383,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19402,7 +19409,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19428,7 +19435,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19448,7 +19455,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19468,7 +19475,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19488,7 +19495,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19509,7 +19516,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19530,7 +19537,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19551,7 +19558,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19572,7 +19579,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19593,7 +19600,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19614,7 +19621,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19635,7 +19642,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19656,7 +19663,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19677,7 +19684,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19698,7 +19705,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19719,7 +19726,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19740,7 +19747,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19761,7 +19768,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19782,7 +19789,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19803,7 +19810,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19824,7 +19831,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19845,7 +19852,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19866,7 +19873,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19887,7 +19894,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19908,7 +19915,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19917,7 +19924,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19926,7 +19933,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19935,7 +19942,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19944,7 +19951,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19953,7 +19960,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19962,7 +19969,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19971,7 +19978,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19980,7 +19987,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19989,7 +19996,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19998,7 +20005,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20007,7 +20014,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20016,7 +20023,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20025,7 +20032,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20034,7 +20041,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20043,7 +20050,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20052,7 +20059,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20061,7 +20068,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20070,7 +20077,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20079,7 +20086,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20088,7 +20095,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20097,7 +20104,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20106,7 +20113,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20115,7 +20122,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20124,7 +20131,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20133,7 +20140,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20142,7 +20149,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20151,7 +20158,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20160,7 +20167,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20169,7 +20176,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
